--- a/Incompressible/Lab_Files/data.xlsx
+++ b/Incompressible/Lab_Files/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fjc122\Downloads\Lab_Files\Lab_Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yasin\Desktop\Coding Projects\Y3_Lab_Group_18\Incompressible\Lab_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD294742-81DF-42EE-998F-31173DF258E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6425FA99-36B9-48B8-AA4A-D8E4BD4EB2EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -552,29 +552,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
   </cellXfs>
@@ -669,9 +667,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -709,7 +707,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -815,7 +813,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -957,7 +955,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -990,19 +988,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F78" sqref="F78"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="2" width="8.7109375" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="1" max="2" width="8.68359375" customWidth="1"/>
+    <col min="3" max="3" width="27.578125" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="1025" width="8.7109375" customWidth="1"/>
+    <col min="5" max="1025" width="8.68359375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1022,8 +1020,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="5">
@@ -1036,8 +1034,8 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="14"/>
       <c r="B3" s="5">
         <v>2</v>
       </c>
@@ -1048,8 +1046,8 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="14"/>
       <c r="B4" s="5">
         <v>3</v>
       </c>
@@ -1060,8 +1058,8 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="14"/>
       <c r="B5" s="5">
         <v>4</v>
       </c>
@@ -1072,8 +1070,8 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="14"/>
       <c r="B6" s="5">
         <v>5</v>
       </c>
@@ -1084,8 +1082,8 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="14"/>
       <c r="B7" s="5">
         <v>6</v>
       </c>
@@ -1096,8 +1094,8 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="14"/>
       <c r="B8" s="5">
         <v>7</v>
       </c>
@@ -1108,8 +1106,8 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="14"/>
       <c r="B9" s="5">
         <v>8</v>
       </c>
@@ -1120,8 +1118,8 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="14"/>
       <c r="B10" s="5">
         <v>9</v>
       </c>
@@ -1132,8 +1130,8 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="14"/>
       <c r="B11" s="5">
         <v>10</v>
       </c>
@@ -1144,8 +1142,8 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="14"/>
       <c r="B12" s="5">
         <v>11</v>
       </c>
@@ -1156,8 +1154,8 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="14"/>
       <c r="B13" s="5">
         <v>12</v>
       </c>
@@ -1168,8 +1166,8 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="14"/>
       <c r="B14" s="5">
         <v>13</v>
       </c>
@@ -1180,8 +1178,8 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="14"/>
       <c r="B15" s="5">
         <v>14</v>
       </c>
@@ -1192,8 +1190,8 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="14"/>
       <c r="B16" s="5">
         <v>15</v>
       </c>
@@ -1204,8 +1202,8 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="14"/>
       <c r="B17" s="5">
         <v>16</v>
       </c>
@@ -1216,8 +1214,8 @@
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="14"/>
       <c r="B18" s="5">
         <v>17</v>
       </c>
@@ -1228,8 +1226,8 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="14"/>
       <c r="B19" s="5">
         <v>18</v>
       </c>
@@ -1240,8 +1238,8 @@
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="14"/>
       <c r="B20" s="5">
         <v>19</v>
       </c>
@@ -1252,8 +1250,8 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="14"/>
       <c r="B21" s="5">
         <v>20</v>
       </c>
@@ -1264,8 +1262,8 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="14"/>
       <c r="B22" s="5">
         <v>21</v>
       </c>
@@ -1276,8 +1274,8 @@
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="14"/>
       <c r="B23" s="5">
         <v>22</v>
       </c>
@@ -1288,8 +1286,8 @@
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="14"/>
       <c r="B24" s="5">
         <v>23</v>
       </c>
@@ -1300,8 +1298,8 @@
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="14"/>
       <c r="B25" s="5">
         <v>24</v>
       </c>
@@ -1312,20 +1310,20 @@
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="14"/>
       <c r="B26" s="5">
         <v>25</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="14"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="14"/>
       <c r="B27" s="5">
         <v>26</v>
       </c>
@@ -1342,8 +1340,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="14"/>
       <c r="B28" s="5">
         <v>27</v>
       </c>
@@ -1354,8 +1352,8 @@
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="14"/>
       <c r="B29" s="5">
         <v>28</v>
       </c>
@@ -1366,8 +1364,8 @@
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="14"/>
       <c r="B30" s="5">
         <v>29</v>
       </c>
@@ -1378,8 +1376,8 @@
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="16"/>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="14"/>
       <c r="B31" s="5">
         <v>30</v>
       </c>
@@ -1390,8 +1388,8 @@
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="14"/>
       <c r="B32" s="5">
         <v>31</v>
       </c>
@@ -1402,8 +1400,8 @@
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="16"/>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="14"/>
       <c r="B33" s="5">
         <v>32</v>
       </c>
@@ -1414,8 +1412,8 @@
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="16"/>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="14"/>
       <c r="B34" s="5">
         <v>33</v>
       </c>
@@ -1426,8 +1424,8 @@
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="16"/>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="14"/>
       <c r="B35" s="5">
         <v>34</v>
       </c>
@@ -1438,8 +1436,8 @@
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="16"/>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="14"/>
       <c r="B36" s="5">
         <v>35</v>
       </c>
@@ -1450,8 +1448,8 @@
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="16"/>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="14"/>
       <c r="B37" s="5">
         <v>36</v>
       </c>
@@ -1462,8 +1460,8 @@
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="17" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="15" t="s">
         <v>43</v>
       </c>
       <c r="B38" s="5">
@@ -1476,8 +1474,8 @@
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="17"/>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="15"/>
       <c r="B39" s="5">
         <v>2</v>
       </c>
@@ -1488,8 +1486,8 @@
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="17"/>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="15"/>
       <c r="B40" s="5">
         <v>3</v>
       </c>
@@ -1500,8 +1498,8 @@
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="17"/>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="15"/>
       <c r="B41" s="5">
         <v>4</v>
       </c>
@@ -1512,8 +1510,8 @@
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="17"/>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="15"/>
       <c r="B42" s="5">
         <v>5</v>
       </c>
@@ -1524,8 +1522,8 @@
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="17"/>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="15"/>
       <c r="B43" s="5">
         <v>6</v>
       </c>
@@ -1536,8 +1534,8 @@
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="17"/>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="15"/>
       <c r="B44" s="5">
         <v>7</v>
       </c>
@@ -1548,8 +1546,8 @@
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="17"/>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="15"/>
       <c r="B45" s="5">
         <v>8</v>
       </c>
@@ -1560,8 +1558,8 @@
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="17"/>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="15"/>
       <c r="B46" s="5">
         <v>9</v>
       </c>
@@ -1572,8 +1570,8 @@
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="17"/>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="15"/>
       <c r="B47" s="5">
         <v>10</v>
       </c>
@@ -1584,8 +1582,8 @@
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="17"/>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="15"/>
       <c r="B48" s="5">
         <v>11</v>
       </c>
@@ -1596,8 +1594,8 @@
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="17"/>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="15"/>
       <c r="B49" s="5">
         <v>12</v>
       </c>
@@ -1608,8 +1606,8 @@
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="17"/>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="15"/>
       <c r="B50" s="5">
         <v>13</v>
       </c>
@@ -1620,8 +1618,8 @@
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="17"/>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="15"/>
       <c r="B51" s="5">
         <v>14</v>
       </c>
@@ -1632,8 +1630,8 @@
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="17"/>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="15"/>
       <c r="B52" s="5">
         <v>15</v>
       </c>
@@ -1644,8 +1642,8 @@
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="17"/>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="15"/>
       <c r="B53" s="5">
         <v>16</v>
       </c>
@@ -1656,8 +1654,8 @@
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="17"/>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="15"/>
       <c r="B54" s="5">
         <v>17</v>
       </c>
@@ -1668,8 +1666,8 @@
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="17"/>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="15"/>
       <c r="B55" s="5">
         <v>18</v>
       </c>
@@ -1680,8 +1678,8 @@
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="17"/>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="15"/>
       <c r="B56" s="5">
         <v>19</v>
       </c>
@@ -1692,8 +1690,8 @@
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="17"/>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="15"/>
       <c r="B57" s="5">
         <v>20</v>
       </c>
@@ -1704,8 +1702,8 @@
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="17"/>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="15"/>
       <c r="B58" s="5">
         <v>21</v>
       </c>
@@ -1716,8 +1714,8 @@
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="17"/>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="15"/>
       <c r="B59" s="5">
         <v>22</v>
       </c>
@@ -1728,8 +1726,8 @@
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="17"/>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="15"/>
       <c r="B60" s="5">
         <v>23</v>
       </c>
@@ -1740,8 +1738,8 @@
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="17"/>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="15"/>
       <c r="B61" s="5">
         <v>24</v>
       </c>
@@ -1752,8 +1750,8 @@
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="17"/>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="15"/>
       <c r="B62" s="5">
         <v>25</v>
       </c>
@@ -1764,8 +1762,8 @@
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="17"/>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="15"/>
       <c r="B63" s="5">
         <v>26</v>
       </c>
@@ -1776,8 +1774,8 @@
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="17"/>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="15"/>
       <c r="B64" s="5">
         <v>27</v>
       </c>
@@ -1788,8 +1786,8 @@
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="17"/>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="15"/>
       <c r="B65" s="5">
         <v>28</v>
       </c>
@@ -1800,8 +1798,8 @@
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="17"/>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="15"/>
       <c r="B66" s="5">
         <v>29</v>
       </c>
@@ -1812,8 +1810,8 @@
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="17"/>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="15"/>
       <c r="B67" s="5">
         <v>30</v>
       </c>
@@ -1824,8 +1822,8 @@
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="17"/>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="15"/>
       <c r="B68" s="5">
         <v>31</v>
       </c>
@@ -1836,8 +1834,8 @@
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="17"/>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="15"/>
       <c r="B69" s="5">
         <v>32</v>
       </c>
@@ -1848,8 +1846,8 @@
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="17"/>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="15"/>
       <c r="B70" s="5">
         <v>33</v>
       </c>
@@ -1860,8 +1858,8 @@
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="17"/>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" s="15"/>
       <c r="B71" s="5">
         <v>34</v>
       </c>
@@ -1872,20 +1870,20 @@
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="17"/>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" s="15"/>
       <c r="B72" s="5">
         <v>35</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D72" s="14"/>
-      <c r="E72" s="13"/>
-      <c r="F72" s="13"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="17"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" s="15"/>
       <c r="B73" s="10">
         <v>36</v>
       </c>
@@ -1902,24 +1900,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="15" t="s">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B74" s="15"/>
-      <c r="C74" s="15"/>
+      <c r="B74" s="13"/>
+      <c r="C74" s="13"/>
       <c r="D74">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E74" s="12"/>
       <c r="F74" s="12"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="15" t="s">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="B75" s="15"/>
-      <c r="C75" s="15"/>
+      <c r="B75" s="13"/>
+      <c r="C75" s="13"/>
       <c r="D75">
         <v>101</v>
       </c>
@@ -1930,12 +1928,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="15" t="s">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="B76" s="15"/>
-      <c r="C76" s="15"/>
+      <c r="B76" s="13"/>
+      <c r="C76" s="13"/>
       <c r="D76">
         <v>17</v>
       </c>
@@ -1946,12 +1944,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="15" t="s">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="B77" s="15"/>
-      <c r="C77" s="15"/>
+      <c r="B77" s="13"/>
+      <c r="C77" s="13"/>
       <c r="D77">
         <f>D75*10^3/(287*(D76+273.15))</f>
         <v>1.2128773955079106</v>
@@ -1965,12 +1963,12 @@
         <v>1.2128773955079106</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="15" t="s">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B78" s="15"/>
-      <c r="C78" s="15"/>
+      <c r="B78" s="13"/>
+      <c r="C78" s="13"/>
       <c r="D78">
         <f>1.716*10^(-5)*(((D76+273.15)/273.15)^1.5)*((273.15+110.4)/(273.15+D76+110.4))</f>
         <v>1.79893134703346E-5</v>
@@ -1984,25 +1982,25 @@
         <v>1.79893134703346E-5</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="15" t="s">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="B79" s="15"/>
-      <c r="C79" s="15"/>
-      <c r="D79" s="15">
+      <c r="B79" s="13"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="13">
         <f>5*10^5</f>
         <v>500000</v>
       </c>
-      <c r="E79" s="15"/>
-      <c r="F79" s="15"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="15" t="s">
+      <c r="E79" s="13"/>
+      <c r="F79" s="13"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B80" s="15"/>
-      <c r="C80" s="15"/>
+      <c r="B80" s="13"/>
+      <c r="C80" s="13"/>
       <c r="D80">
         <f>$D$79*D78/(D77*0.225)</f>
         <v>32.95984598637726</v>
@@ -2016,19 +2014,19 @@
         <v>32.95984598637726</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="15" t="s">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="B81" s="15"/>
-      <c r="C81" s="15"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="15" t="s">
+      <c r="B81" s="13"/>
+      <c r="C81" s="13"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B82" s="15"/>
-      <c r="C82" s="15"/>
+      <c r="B82" s="13"/>
+      <c r="C82" s="13"/>
       <c r="D82">
         <f>D77*D81*0.225/D78</f>
         <v>0</v>
@@ -2044,6 +2042,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="A79:C79"/>
     <mergeCell ref="D79:F79"/>
     <mergeCell ref="A80:C80"/>
     <mergeCell ref="A2:A37"/>
@@ -2051,11 +2054,6 @@
     <mergeCell ref="A74:C74"/>
     <mergeCell ref="A75:C75"/>
     <mergeCell ref="A76:C76"/>
-    <mergeCell ref="A81:C81"/>
-    <mergeCell ref="A82:C82"/>
-    <mergeCell ref="A77:C77"/>
-    <mergeCell ref="A78:C78"/>
-    <mergeCell ref="A79:C79"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
